--- a/hcnc_init/src/main/resources/templates/excel/ExcelDownload.xlsx
+++ b/hcnc_init/src/main/resources/templates/excel/ExcelDownload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01 Project\HCNC\(에이치씨엔씨) 프리랜서 관리 시스템\00 Project\hcnc_hms\hcnc_init\src\main\resources\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3D0202-03D7-483A-AD8C-39A420F5805E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C43FBC-86E7-4456-8077-B9BE72BA5C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{6594381C-3E69-4043-B9C6-4C88BA187EA4}"/>
   </bookViews>
@@ -383,11 +383,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -417,14 +414,14 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -753,146 +750,146 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="18" spans="2:3" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="7"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="7"/>
+      <c r="C27" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -914,13 +911,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -932,7 +929,7 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -940,38 +937,38 @@
       <c r="G5" s="12"/>
     </row>
     <row r="7" spans="2:7" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>2</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>3</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>4</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -999,38 +996,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1055,34 +1052,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1106,51 +1103,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>3</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>4</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>5</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="7"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="7" spans="2:8" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -1163,7 +1160,7 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -1172,12 +1169,12 @@
       <c r="H10" s="12"/>
     </row>
     <row r="12" spans="2:8" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -1190,7 +1187,7 @@
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -1203,7 +1200,7 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -1216,7 +1213,7 @@
       <c r="H16" s="12"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -1229,7 +1226,7 @@
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -1275,56 +1272,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="7"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="7" spans="2:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1333,6 +1330,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100D90AAD13D314684D9836DD6D599A02FE" ma:contentTypeVersion="5" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="d16db52b43f0392fa8d704e59f002295">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="99e35cbe-07f3-466e-bf48-74a1f06a1db6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8afc77cd56251a8fc211bec422cda4e7" ns3:_="">
     <xsd:import namespace="99e35cbe-07f3-466e-bf48-74a1f06a1db6"/>
@@ -1482,35 +1494,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5866335D-A67D-4690-9548-BEB4D83407F3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E73CA25C-E781-4C61-B2F1-C1821FA5546C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="99e35cbe-07f3-466e-bf48-74a1f06a1db6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1532,9 +1519,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E73CA25C-E781-4C61-B2F1-C1821FA5546C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5866335D-A67D-4690-9548-BEB4D83407F3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="99e35cbe-07f3-466e-bf48-74a1f06a1db6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/hcnc_init/src/main/resources/templates/excel/ExcelDownload.xlsx
+++ b/hcnc_init/src/main/resources/templates/excel/ExcelDownload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01 Project\HCNC\(에이치씨엔씨) 프리랜서 관리 시스템\00 Project\hcnc_hms\hcnc_init\src\main\resources\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C43FBC-86E7-4456-8077-B9BE72BA5C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8109AF91-EF35-4F73-A152-BD7EE1143310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{6594381C-3E69-4043-B9C6-4C88BA187EA4}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6594381C-3E69-4043-B9C6-4C88BA187EA4}"/>
   </bookViews>
   <sheets>
     <sheet name="인력 Master" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>항목</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -276,6 +276,14 @@
   </si>
   <si>
     <t>재투입가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -899,7 +907,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD2D187-F35B-4DB2-A661-7030021F5B70}">
-  <dimension ref="B2:G10"/>
+  <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -943,37 +951,49 @@
     </row>
     <row r="8" spans="2:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="11"/>
+      <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D10" s="3">
         <v>2</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E10" s="3">
         <v>3</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F10" s="3">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G10" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1089,7 +1109,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6779E96B-559F-4261-ACE7-0198544D3BE4}">
-  <dimension ref="B2:H18"/>
+  <dimension ref="B2:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1109,102 +1129,100 @@
     </row>
     <row r="3" spans="2:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="11"/>
+      <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F5" s="3">
         <v>4</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G5" s="3">
         <v>5</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="7" spans="2:8" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="8" spans="2:8" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="2:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="12" spans="2:8" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="13" spans="2:8" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -1214,10 +1232,10 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -1227,10 +1245,10 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -1238,15 +1256,31 @@
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
     </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C17:H17"/>
+  <mergeCells count="10">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C19:H19"/>
     <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C11:H11"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1330,21 +1364,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100D90AAD13D314684D9836DD6D599A02FE" ma:contentTypeVersion="5" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="d16db52b43f0392fa8d704e59f002295">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="99e35cbe-07f3-466e-bf48-74a1f06a1db6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8afc77cd56251a8fc211bec422cda4e7" ns3:_="">
     <xsd:import namespace="99e35cbe-07f3-466e-bf48-74a1f06a1db6"/>
@@ -1494,31 +1513,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E73CA25C-E781-4C61-B2F1-C1821FA5546C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A80524F4-D8CC-4AD9-B648-11FE956AA962}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="99e35cbe-07f3-466e-bf48-74a1f06a1db6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5866335D-A67D-4690-9548-BEB4D83407F3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1534,4 +1544,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E73CA25C-E781-4C61-B2F1-C1821FA5546C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A80524F4-D8CC-4AD9-B648-11FE956AA962}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="99e35cbe-07f3-466e-bf48-74a1f06a1db6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/hcnc_init/src/main/resources/templates/excel/ExcelDownload.xlsx
+++ b/hcnc_init/src/main/resources/templates/excel/ExcelDownload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01 Project\HCNC\(에이치씨엔씨) 프리랜서 관리 시스템\00 Project\hcnc_hms\hcnc_init\src\main\resources\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8109AF91-EF35-4F73-A152-BD7EE1143310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7C56D6-A54A-4A4B-A52A-3F337143FFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6594381C-3E69-4043-B9C6-4C88BA187EA4}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="4" xr2:uid="{6594381C-3E69-4043-B9C6-4C88BA187EA4}"/>
   </bookViews>
   <sheets>
     <sheet name="인력 Master" sheetId="1" r:id="rId1"/>
@@ -195,10 +195,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>코멘트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>등급</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -284,6 +280,10 @@
   </si>
   <si>
     <t>점수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>평가의견</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -748,7 +748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A802CA7-34F7-4A37-BAA0-3CFE659F1EC8}">
   <dimension ref="B2:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -955,7 +955,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -1111,7 +1111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6779E96B-559F-4261-ACE7-0198544D3BE4}">
   <dimension ref="B2:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1133,14 +1133,14 @@
         <v>0</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -1173,7 +1173,7 @@
     </row>
     <row r="8" spans="2:8" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1201,15 +1201,15 @@
     </row>
     <row r="13" spans="2:8" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -1307,19 +1307,19 @@
   <sheetData>
     <row r="2" spans="2:5" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>22</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="7" spans="2:5" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1342,13 +1342,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
@@ -1364,6 +1364,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100D90AAD13D314684D9836DD6D599A02FE" ma:contentTypeVersion="5" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="d16db52b43f0392fa8d704e59f002295">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="99e35cbe-07f3-466e-bf48-74a1f06a1db6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8afc77cd56251a8fc211bec422cda4e7" ns3:_="">
     <xsd:import namespace="99e35cbe-07f3-466e-bf48-74a1f06a1db6"/>
@@ -1513,22 +1528,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A80524F4-D8CC-4AD9-B648-11FE956AA962}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="99e35cbe-07f3-466e-bf48-74a1f06a1db6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E73CA25C-E781-4C61-B2F1-C1821FA5546C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5866335D-A67D-4690-9548-BEB4D83407F3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1544,28 +1568,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E73CA25C-E781-4C61-B2F1-C1821FA5546C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A80524F4-D8CC-4AD9-B648-11FE956AA962}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="99e35cbe-07f3-466e-bf48-74a1f06a1db6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>